--- a/modelo_dados.xlsx
+++ b/modelo_dados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>id Esperança Vida corresponde à chave primária da Tabela Esperança Vida.</t>
+  </si>
+  <si>
+    <t>1-N</t>
   </si>
 </sst>
 </file>
@@ -597,6 +600,126 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -608,126 +731,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,271 +1049,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="34" customFormat="1">
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="2:14" s="29" customFormat="1">
+      <c r="B3" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="2:14" s="34" customFormat="1">
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-    </row>
-    <row r="5" spans="2:14" s="34" customFormat="1">
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="52"/>
-    </row>
-    <row r="6" spans="2:14" s="34" customFormat="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-    </row>
-    <row r="7" spans="2:14" s="34" customFormat="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="55"/>
-    </row>
-    <row r="8" spans="2:14" s="34" customFormat="1"/>
-    <row r="9" spans="2:14" s="34" customFormat="1">
-      <c r="B9" s="36" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+    </row>
+    <row r="4" spans="2:14" s="29" customFormat="1">
+      <c r="B4" s="52"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="60"/>
+    </row>
+    <row r="5" spans="2:14" s="29" customFormat="1">
+      <c r="B5" s="52"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="60"/>
+    </row>
+    <row r="6" spans="2:14" s="29" customFormat="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="2:14" s="29" customFormat="1">
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63"/>
+    </row>
+    <row r="8" spans="2:14" s="29" customFormat="1"/>
+    <row r="9" spans="2:14" s="29" customFormat="1">
+      <c r="B9" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:14" s="34" customFormat="1">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:14" s="29" customFormat="1">
+      <c r="B10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="2:14" s="34" customFormat="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-    </row>
-    <row r="12" spans="2:14" s="34" customFormat="1" ht="15" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+    </row>
+    <row r="11" spans="2:14" s="29" customFormat="1">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+    </row>
+    <row r="12" spans="2:14" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="2:14" s="34" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B13" s="56" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="43"/>
+    </row>
+    <row r="13" spans="2:14" s="29" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B13" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-    </row>
-    <row r="14" spans="2:14" s="34" customFormat="1">
-      <c r="B14" s="66" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+    </row>
+    <row r="14" spans="2:14" s="29" customFormat="1">
+      <c r="B14" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-    </row>
-    <row r="15" spans="2:14" s="34" customFormat="1">
-      <c r="B15" s="70" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
+    </row>
+    <row r="15" spans="2:14" s="29" customFormat="1">
+      <c r="B15" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="72"/>
-    </row>
-    <row r="16" spans="2:14" s="34" customFormat="1">
-      <c r="B16" s="50" t="s">
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="54"/>
+    </row>
+    <row r="16" spans="2:14" s="29" customFormat="1">
+      <c r="B16" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="72"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="72"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="72"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="69"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="33" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
       <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B20" s="38"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -1319,7 +1322,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>8</v>
@@ -1336,7 +1339,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B21" s="39"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1360,7 +1363,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="39"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1382,7 +1385,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="39"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1404,7 +1407,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30">
-      <c r="B24" s="38"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -1426,7 +1429,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="38"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1446,23 +1449,23 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1493,7 +1496,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>8</v>
@@ -1552,7 +1555,7 @@
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="2:17" ht="30">
-      <c r="B29" s="40"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="16">
         <v>1</v>
       </c>
@@ -1588,7 +1591,7 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="41"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="16">
         <v>2</v>
       </c>
@@ -1624,7 +1627,7 @@
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1">
-      <c r="B31" s="42"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="15">
         <v>3</v>
       </c>
@@ -1660,7 +1663,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1">
-      <c r="B32" s="38"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -1678,7 +1681,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="2:17" ht="15" customHeight="1">
-      <c r="B33" s="38"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
@@ -1696,7 +1699,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="38"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -1705,24 +1708,24 @@
       <c r="H34" s="12"/>
       <c r="I34" s="10"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="9"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="38"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="43"/>
+      <c r="H35" s="38"/>
       <c r="I35" s="10"/>
       <c r="J35" s="12"/>
       <c r="K35" s="17" t="s">
@@ -1740,7 +1743,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="2:17" ht="45.75" thickBot="1">
-      <c r="B36" s="38"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -1751,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>9</v>
@@ -1768,7 +1771,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B37" s="38"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
@@ -1790,7 +1793,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="38"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -1812,7 +1815,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="38"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -1834,7 +1837,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="38"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -1852,7 +1855,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="38"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
@@ -1870,7 +1873,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="38"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -1879,18 +1882,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="29" t="s">
+      <c r="K42" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="31"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="71"/>
       <c r="N42" s="9"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="38"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -1914,7 +1917,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:17" ht="30.75" thickBot="1">
-      <c r="B44" s="38"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -1925,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="K44" s="18" t="s">
         <v>9</v>
@@ -1942,7 +1945,7 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B45" s="38"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -1961,7 +1964,7 @@
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="38"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
@@ -1980,7 +1983,7 @@
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="38"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
@@ -1999,22 +2002,27 @@
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="44"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="46"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K34:M34"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="B16:N16"/>
@@ -2022,11 +2030,6 @@
     <mergeCell ref="B3:N7"/>
     <mergeCell ref="B10:N11"/>
     <mergeCell ref="B13:N13"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/modelo_dados.xlsx
+++ b/modelo_dados.xlsx
@@ -128,9 +128,6 @@
     <t>MODELO DE DADOS</t>
   </si>
   <si>
-    <t>Contxtualização</t>
-  </si>
-  <si>
     <t>Modelo Físico</t>
   </si>
   <si>
@@ -159,46 +156,153 @@
   </si>
   <si>
     <t>origin</t>
+  </si>
+  <si>
+    <t>Cada coluna é apresentada com dois títulos: a identificação, ou seja, os nomes utilizados no código do projeto; e a designação que não é mais do que uma descrição da identificação para melhor compreensão.</t>
+  </si>
+  <si>
+    <t>Identificação das chaves primárias</t>
+  </si>
+  <si>
+    <t>id Cor corresponde à chave primária da Tabela Cores;</t>
+  </si>
+  <si>
+    <t>id Altura corresponde à chave primária da Tabela Altura;</t>
+  </si>
+  <si>
+    <t>id País Origem corresponde à chave primária da Tabela País Origem;</t>
+  </si>
+  <si>
+    <t>id Esperança Vida corresponde à chave primária da Tabela Esperança Vida.</t>
+  </si>
+  <si>
+    <t>1-N</t>
+  </si>
+  <si>
+    <t>Contextualização</t>
   </si>
   <si>
     <t xml:space="preserve">
 O modelo de dados utilizado é um modelo de dados relacional e descreve raças de cães e as principais características físicas das mesmas.
-Foi utilizada uma tabela principal: raças de cães. Nesta tabela é identificada a raça do cão e as restantes colunas desta tabela são chaves estrangeiras que remetem para outras tabelas que completam as informações necessárias a cada raça de cão: cor, altura, esperança média de vida e país de origem. De seguida é possível verificar as tabelas criadas e as suas relações.
+Foi utilizada uma tabela principal: raças de cães. Nesta tabela é identificada a raça do cão, e as restantes colunas desta tabela são chaves estrangeiras que remetem para outras tabelas que completam as informações necessárias a cada raça de cão: cor, altura, esperança média de vida e país de origem. De seguida é possível verificar as tabelas criadas e as suas relações.
 </t>
   </si>
   <si>
-    <t>Cada coluna é apresentada com dois títulos: a identificação, ou seja, os nomes utilizados no código do projeto; e a designação que não é mais do que uma descrição da identificação para melhor compreensão.</t>
-  </si>
-  <si>
-    <t>Identificação das chaves primárias</t>
-  </si>
-  <si>
-    <t>Tabela Raças de Cães: id Raça; Tabela Cores: id cor; Tabela Altura: id altura; Tabela Esperança de Vida: id Esperança Vida; Tabela País Origem: id País Origem.</t>
-  </si>
-  <si>
-    <t>Identificação das chaves Estrangeiras da Tabela Raças de Cães</t>
-  </si>
-  <si>
-    <t>id Cor corresponde à chave primária da Tabela Cores;</t>
-  </si>
-  <si>
-    <t>id Altura corresponde à chave primária da Tabela Altura;</t>
-  </si>
-  <si>
-    <t>id País Origem corresponde à chave primária da Tabela País Origem;</t>
-  </si>
-  <si>
-    <t>id Esperança Vida corresponde à chave primária da Tabela Esperança Vida.</t>
-  </si>
-  <si>
-    <t>1-N</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabela Raças de Cães:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id Raça; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabela Cores: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id cor; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabela Altura: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id altura; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabela Esperança de Vida: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">id Esperança Vida; </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tabela País Origem: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id País Origem.</t>
+    </r>
+  </si>
+  <si>
+    <t>Identificação das chaves estrangeiras da Tabela Raças de Cães</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +329,15 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -669,6 +782,21 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -684,53 +812,35 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,127 +1165,127 @@
     </row>
     <row r="2" spans="2:14">
       <c r="B2" s="31" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="2:14" s="29" customFormat="1">
-      <c r="B3" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="B3" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="2:14" s="29" customFormat="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="2:14" s="29" customFormat="1">
-      <c r="B5" s="52"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1">
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1"/>
     <row r="9" spans="2:14" s="29" customFormat="1">
       <c r="B9" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:14" s="29" customFormat="1">
-      <c r="B10" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
+      <c r="B10" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="2:14" s="29" customFormat="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
     </row>
     <row r="12" spans="2:14" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -1191,31 +1301,31 @@
       <c r="N12" s="43"/>
     </row>
     <row r="13" spans="2:14" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B13" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
+      <c r="B13" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
     </row>
     <row r="14" spans="2:14" s="29" customFormat="1">
       <c r="B14" s="48" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="44"/>
@@ -1225,72 +1335,72 @@
       <c r="N14" s="45"/>
     </row>
     <row r="15" spans="2:14" s="29" customFormat="1">
-      <c r="B15" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
+      <c r="B15" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="2:14" s="29" customFormat="1">
-      <c r="B16" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="54"/>
+      <c r="B16" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="54"/>
+      <c r="B17" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="54"/>
+      <c r="B18" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="51"/>
@@ -1302,11 +1412,11 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
       <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1322,7 +1432,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K20" s="17" t="s">
         <v>8</v>
@@ -1449,23 +1559,23 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1478,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>4</v>
@@ -1496,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>8</v>
@@ -1519,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>1</v>
@@ -1581,10 +1691,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -1617,10 +1727,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -1653,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="M31" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="1"/>
@@ -1708,11 +1818,11 @@
       <c r="H34" s="12"/>
       <c r="I34" s="10"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
       <c r="N34" s="9"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1754,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>9</v>
@@ -1882,11 +1992,11 @@
       <c r="H42" s="12"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="69" t="s">
+      <c r="K42" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="70"/>
-      <c r="M42" s="71"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="54"/>
       <c r="N42" s="9"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -1909,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="1"/>
@@ -1928,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K44" s="18" t="s">
         <v>9</v>
@@ -2018,11 +2128,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K34:M34"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="B16:N16"/>
@@ -2030,6 +2135,11 @@
     <mergeCell ref="B3:N7"/>
     <mergeCell ref="B10:N11"/>
     <mergeCell ref="B13:N13"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/modelo_dados.xlsx
+++ b/modelo_dados.xlsx
@@ -782,6 +782,54 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,54 +841,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,81 +1169,81 @@
       </c>
     </row>
     <row r="3" spans="2:14" s="29" customFormat="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="67"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="2:14" s="29" customFormat="1">
-      <c r="B4" s="60"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="55"/>
     </row>
     <row r="5" spans="2:14" s="29" customFormat="1">
-      <c r="B5" s="60"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="55"/>
     </row>
     <row r="6" spans="2:14" s="29" customFormat="1">
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="2:14" s="29" customFormat="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="62"/>
     </row>
     <row r="8" spans="2:14" s="29" customFormat="1"/>
     <row r="9" spans="2:14" s="29" customFormat="1">
@@ -1252,36 +1252,36 @@
       </c>
     </row>
     <row r="10" spans="2:14" s="29" customFormat="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
     </row>
     <row r="11" spans="2:14" s="29" customFormat="1">
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
     </row>
     <row r="12" spans="2:14" s="29" customFormat="1" ht="15" customHeight="1">
       <c r="B12" s="46" t="s">
@@ -1301,21 +1301,21 @@
       <c r="N12" s="43"/>
     </row>
     <row r="13" spans="2:14" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="2:14" s="29" customFormat="1">
       <c r="B14" s="48" t="s">
@@ -1325,7 +1325,7 @@
       <c r="D14" s="50"/>
       <c r="E14" s="47"/>
       <c r="F14" s="47"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
       <c r="J14" s="44"/>
@@ -1335,72 +1335,72 @@
       <c r="N14" s="45"/>
     </row>
     <row r="15" spans="2:14" s="29" customFormat="1">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="59"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="55"/>
     </row>
     <row r="16" spans="2:14" s="29" customFormat="1">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="55"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="59"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" s="51"/>
@@ -1412,11 +1412,11 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="56" t="s">
+      <c r="K19" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="13"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1559,23 +1559,23 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="56" t="s">
+      <c r="K26" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1818,11 +1818,11 @@
       <c r="H34" s="12"/>
       <c r="I34" s="10"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="56" t="s">
+      <c r="K34" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
       <c r="N34" s="9"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1992,11 +1992,11 @@
       <c r="H42" s="12"/>
       <c r="I42" s="10"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="52" t="s">
+      <c r="K42" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="54"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="70"/>
       <c r="N42" s="9"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -2128,6 +2128,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K34:M34"/>
     <mergeCell ref="B18:N18"/>
     <mergeCell ref="B15:N15"/>
     <mergeCell ref="B16:N16"/>
@@ -2135,11 +2140,6 @@
     <mergeCell ref="B3:N7"/>
     <mergeCell ref="B10:N11"/>
     <mergeCell ref="B13:N13"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
